--- a/biology/Neurosciences/William_Scoville/William_Scoville.xlsx
+++ b/biology/Neurosciences/William_Scoville/William_Scoville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Beecher Scoville, né le 13 janvier 1906 et mort le 25 février 1984 est un neurochirurgien américain ayant effectué sa carrière à l'hôpital Hartford dans le Connecticut. 
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scoville intègre le service de neurochirurgie en 1939. Il est célèbre pour avoir opéré en 1953 un patient nommé Henry Gustav Molaison (HM) pour tenter de traiter une épilepsie ayant pour origine des lésions des hippocampes.Cette intervention laissa au patient un syndrome amnésique séquellaire qui servit ensuite de modèle d’étude pour les cliniciens[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scoville intègre le service de neurochirurgie en 1939. Il est célèbre pour avoir opéré en 1953 un patient nommé Henry Gustav Molaison (HM) pour tenter de traiter une épilepsie ayant pour origine des lésions des hippocampes.Cette intervention laissa au patient un syndrome amnésique séquellaire qui servit ensuite de modèle d’étude pour les cliniciens.
 En 1965, Scoville est poursuivi en justice pour mauvaise pratique de la médecine.  Le plaignant qui n’est autre que le patient HM  fait valoir que Scoville avait promis qu'il retirerait des résultats positifs de la chirurgie.
 Scoville meurt d’un accident de voiture le 25 février 1984.
 </t>
